--- a/makeprofileplot_config.xlsx
+++ b/makeprofileplot_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshg\Downloads\CEQUALW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0734ADA-02A8-4D66-95F3-566C0316B063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BE576B8-A388-4C33-A2DD-B5C69019C9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>File</t>
   </si>
@@ -42,18 +42,12 @@
     <t>Sheet Name</t>
   </si>
   <si>
-    <t>Variable Column</t>
-  </si>
-  <si>
     <t>Legend Label</t>
   </si>
   <si>
     <t>Date Column</t>
   </si>
   <si>
-    <t>Figure Name</t>
-  </si>
-  <si>
     <t>Figure Title</t>
   </si>
   <si>
@@ -84,12 +78,6 @@
     <t>$ Create a profile plot of 1 variable from observed and modeled datasets</t>
   </si>
   <si>
-    <t>Prof_plot</t>
-  </si>
-  <si>
-    <t>Profile Plot for Segment 29 - Hagg Lake</t>
-  </si>
-  <si>
     <t>Temperature</t>
   </si>
   <si>
@@ -133,6 +121,54 @@
   </si>
   <si>
     <t>Julian Start Day</t>
+  </si>
+  <si>
+    <t>Variable Column Name</t>
+  </si>
+  <si>
+    <t>Lab Parameter</t>
+  </si>
+  <si>
+    <t>Result Column Name</t>
+  </si>
+  <si>
+    <t>Result_as#2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seg_29 </t>
+  </si>
+  <si>
+    <t>Depth Column Name</t>
+  </si>
+  <si>
+    <t>Depth_m</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>NA Values</t>
+  </si>
+  <si>
+    <t>Variable Units</t>
+  </si>
+  <si>
+    <t>Celsius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof_plot </t>
+  </si>
+  <si>
+    <t>Figure Name *Do we need this ?*</t>
+  </si>
+  <si>
+    <t>Profile of Hagg Lake Segment 29 on</t>
+  </si>
+  <si>
+    <t>Constituent</t>
   </si>
 </sst>
 </file>
@@ -205,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -230,6 +266,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -462,17 +500,17 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -480,10 +518,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -494,143 +532,196 @@
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
+      <c r="A7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>19</v>
+      <c r="A9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="13">
-        <v>41275</v>
-      </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>16</v>
+      <c r="A11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>17</v>
+      <c r="A12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="4">
+        <v>-999</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-99</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>25</v>
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="B15" s="13">
+        <v>41275</v>
+      </c>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="7">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="7">
         <v>0</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C19" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
